--- a/학습자료/단답형/영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/영어_유의어_Day03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D62"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,22 +436,27 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
+          <t>질문2</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>대답</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>구분</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>날짜</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>질문</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>대답</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>날짜</t>
         </is>
       </c>
     </row>
@@ -476,6 +481,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>extinction*</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -498,6 +508,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>extermination</t>
+        </is>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -520,6 +535,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>annihilation</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -542,6 +562,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>eradication</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -564,6 +589,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>disappearance*</t>
+        </is>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -586,6 +616,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>depression*</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -595,7 +630,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -606,6 +641,11 @@
       <c r="D8" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>melancholy</t>
         </is>
       </c>
     </row>
@@ -617,7 +657,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>우울</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -628,6 +668,11 @@
       <c r="D9" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>dejection</t>
         </is>
       </c>
     </row>
@@ -639,7 +684,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -650,6 +695,11 @@
       <c r="D10" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>recession</t>
         </is>
       </c>
     </row>
@@ -661,7 +711,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -672,6 +722,11 @@
       <c r="D11" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>slump</t>
         </is>
       </c>
     </row>
@@ -683,7 +738,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
@@ -694,6 +749,11 @@
       <c r="D12" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>stagnation</t>
         </is>
       </c>
     </row>
@@ -705,7 +765,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>불경기</t>
+          <t>우울, 불경기</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
@@ -716,6 +776,11 @@
       <c r="D13" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>downturn</t>
         </is>
       </c>
     </row>
@@ -740,6 +805,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>efficiency*</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -749,7 +819,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
@@ -760,6 +830,11 @@
       <c r="D15" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>efficacy</t>
         </is>
       </c>
     </row>
@@ -771,7 +846,7 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>효능</t>
+          <t>효율, 효능</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
@@ -782,6 +857,11 @@
       <c r="D16" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>potency</t>
         </is>
       </c>
     </row>
@@ -806,6 +886,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>caution*</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -828,6 +913,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>wariness</t>
+        </is>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -850,6 +940,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>heed</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -872,6 +967,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>vigilance</t>
+        </is>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -894,6 +994,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>prudence</t>
+        </is>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -916,6 +1021,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>fix*</t>
+        </is>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -925,7 +1035,7 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
@@ -936,6 +1046,11 @@
       <c r="D23" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>solution</t>
         </is>
       </c>
     </row>
@@ -947,7 +1062,7 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
@@ -958,6 +1073,11 @@
       <c r="D24" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>remedy</t>
         </is>
       </c>
     </row>
@@ -969,7 +1089,7 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
@@ -980,6 +1100,11 @@
       <c r="D25" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>antidote</t>
         </is>
       </c>
     </row>
@@ -991,7 +1116,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>해결책</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -1002,6 +1127,11 @@
       <c r="D26" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>answer</t>
         </is>
       </c>
     </row>
@@ -1013,7 +1143,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -1024,6 +1154,11 @@
       <c r="D27" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>predicament</t>
         </is>
       </c>
     </row>
@@ -1035,7 +1170,7 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
@@ -1046,6 +1181,11 @@
       <c r="D28" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>difficulty</t>
         </is>
       </c>
     </row>
@@ -1057,7 +1197,7 @@
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
@@ -1068,6 +1208,11 @@
       <c r="D29" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>plight</t>
         </is>
       </c>
     </row>
@@ -1079,7 +1224,7 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>곤경</t>
+          <t>해결책, 곤경</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
@@ -1090,6 +1235,11 @@
       <c r="D30" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>quandary</t>
         </is>
       </c>
     </row>
@@ -1114,6 +1264,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>damage*</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1136,6 +1291,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>garm</t>
+        </is>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1158,6 +1318,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>detriment</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1180,6 +1345,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>disfigurement</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1202,6 +1372,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>mischief</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1224,6 +1399,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>prize*</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1233,7 +1413,7 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
@@ -1244,6 +1424,11 @@
       <c r="D37" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>award</t>
         </is>
       </c>
     </row>
@@ -1255,7 +1440,7 @@
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
@@ -1266,6 +1451,11 @@
       <c r="D38" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>reward</t>
         </is>
       </c>
     </row>
@@ -1277,7 +1467,7 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>소중한 것</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
@@ -1288,6 +1478,11 @@
       <c r="D39" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>treasure</t>
         </is>
       </c>
     </row>
@@ -1299,7 +1494,7 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>상</t>
+          <t>상, 소중한 것</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
@@ -1310,6 +1505,11 @@
       <c r="D40" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>accolade</t>
         </is>
       </c>
     </row>
@@ -1334,6 +1534,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>complication*</t>
+        </is>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1356,6 +1561,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>complexity</t>
+        </is>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1378,6 +1588,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>intricacy</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1400,6 +1615,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>involution</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1422,6 +1642,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>fall on*</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1431,7 +1656,7 @@
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C46" t="inlineStr">
@@ -1442,6 +1667,11 @@
       <c r="D46" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>fall from</t>
         </is>
       </c>
     </row>
@@ -1453,7 +1683,7 @@
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>떨어지다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C47" t="inlineStr">
@@ -1464,6 +1694,11 @@
       <c r="D47" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>come off</t>
         </is>
       </c>
     </row>
@@ -1475,7 +1710,7 @@
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C48" t="inlineStr">
@@ -1486,6 +1721,11 @@
       <c r="D48" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>pitch</t>
         </is>
       </c>
     </row>
@@ -1497,7 +1737,7 @@
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C49" t="inlineStr">
@@ -1508,6 +1748,11 @@
       <c r="D49" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>chop upon</t>
         </is>
       </c>
     </row>
@@ -1519,7 +1764,7 @@
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C50" t="inlineStr">
@@ -1530,6 +1775,11 @@
       <c r="D50" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>attack</t>
         </is>
       </c>
     </row>
@@ -1541,7 +1791,7 @@
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C51" t="inlineStr">
@@ -1552,6 +1802,11 @@
       <c r="D51" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>assault</t>
         </is>
       </c>
     </row>
@@ -1563,7 +1818,7 @@
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>습격하다</t>
+          <t>떨어지다, 습격하다</t>
         </is>
       </c>
       <c r="C52" t="inlineStr">
@@ -1574,6 +1829,11 @@
       <c r="D52" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>assail</t>
         </is>
       </c>
     </row>
@@ -1598,6 +1858,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>call for*</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1620,6 +1885,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>call on</t>
+        </is>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1642,6 +1912,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>ask for</t>
+        </is>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1664,6 +1939,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>put in for</t>
+        </is>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1686,6 +1966,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>summon</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1708,6 +1993,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>necessitate</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1730,6 +2020,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>demand</t>
+        </is>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1752,6 +2047,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>stipulate</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1774,6 +2074,11 @@
           <t>Day03</t>
         </is>
       </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>enjoin</t>
+        </is>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1794,6 +2099,11 @@
       <c r="D62" t="inlineStr">
         <is>
           <t>Day03</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>require</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/영어_유의어_Day03.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E62"/>
+  <dimension ref="A1:C62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -436,7 +436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>질문2</t>
+          <t>질문</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
@@ -446,17 +446,7 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>구분</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
           <t>날짜</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>질문</t>
         </is>
       </c>
     </row>
@@ -473,17 +463,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>extinction*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -500,17 +480,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>extermination</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -527,17 +497,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>annihilation</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -554,17 +514,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>eradication</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -581,17 +531,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>disappearance*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -608,17 +548,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>depression*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -635,17 +565,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>melancholy</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -662,17 +582,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>dejection</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -689,17 +599,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>recession</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -716,17 +616,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>slump</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -743,17 +633,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>stagnation</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -770,17 +650,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>downturn</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -797,17 +667,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>efficiency*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -824,17 +684,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E15" t="inlineStr">
-        <is>
-          <t>efficacy</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -851,17 +701,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>potency</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -878,17 +718,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
-        <is>
-          <t>caution*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -905,17 +735,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D18" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E18" t="inlineStr">
-        <is>
-          <t>wariness</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -932,17 +752,7 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E19" t="inlineStr">
-        <is>
-          <t>heed</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -959,17 +769,7 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E20" t="inlineStr">
-        <is>
-          <t>vigilance</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -986,17 +786,7 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E21" t="inlineStr">
-        <is>
-          <t>prudence</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1013,17 +803,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E22" t="inlineStr">
-        <is>
-          <t>fix*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1040,17 +820,7 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E23" t="inlineStr">
-        <is>
-          <t>solution</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1067,17 +837,7 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
-        <is>
-          <t>remedy</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1094,17 +854,7 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E25" t="inlineStr">
-        <is>
-          <t>antidote</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1121,17 +871,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E26" t="inlineStr">
-        <is>
-          <t>answer</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1148,17 +888,7 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E27" t="inlineStr">
-        <is>
-          <t>predicament</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1175,17 +905,7 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E28" t="inlineStr">
-        <is>
-          <t>difficulty</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1202,17 +922,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E29" t="inlineStr">
-        <is>
-          <t>plight</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1229,17 +939,7 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E30" t="inlineStr">
-        <is>
-          <t>quandary</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1256,17 +956,7 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E31" t="inlineStr">
-        <is>
-          <t>damage*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1283,17 +973,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E32" t="inlineStr">
-        <is>
-          <t>garm</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1310,17 +990,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E33" t="inlineStr">
-        <is>
-          <t>detriment</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1337,17 +1007,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E34" t="inlineStr">
-        <is>
-          <t>disfigurement</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1364,17 +1024,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D35" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E35" t="inlineStr">
-        <is>
-          <t>mischief</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1391,17 +1041,7 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E36" t="inlineStr">
-        <is>
-          <t>prize*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1418,17 +1058,7 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E37" t="inlineStr">
-        <is>
-          <t>award</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1445,17 +1075,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E38" t="inlineStr">
-        <is>
-          <t>reward</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1472,17 +1092,7 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E39" t="inlineStr">
-        <is>
-          <t>treasure</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1499,17 +1109,7 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D40" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E40" t="inlineStr">
-        <is>
-          <t>accolade</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1526,17 +1126,7 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E41" t="inlineStr">
-        <is>
-          <t>complication*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1553,17 +1143,7 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E42" t="inlineStr">
-        <is>
-          <t>complexity</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1580,17 +1160,7 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E43" t="inlineStr">
-        <is>
-          <t>intricacy</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1607,17 +1177,7 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E44" t="inlineStr">
-        <is>
-          <t>involution</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1634,17 +1194,7 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E45" t="inlineStr">
-        <is>
-          <t>fall on*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1661,17 +1211,7 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E46" t="inlineStr">
-        <is>
-          <t>fall from</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1688,17 +1228,7 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E47" t="inlineStr">
-        <is>
-          <t>come off</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1715,17 +1245,7 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E48" t="inlineStr">
-        <is>
-          <t>pitch</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1742,17 +1262,7 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>chop upon</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1769,17 +1279,7 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E50" t="inlineStr">
-        <is>
-          <t>attack</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1796,17 +1296,7 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>assault</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1823,17 +1313,7 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E52" t="inlineStr">
-        <is>
-          <t>assail</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1850,17 +1330,7 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>기출</t>
-        </is>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E53" t="inlineStr">
-        <is>
-          <t>call for*</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1877,17 +1347,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E54" t="inlineStr">
-        <is>
-          <t>call on</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1904,17 +1364,7 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D55" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E55" t="inlineStr">
-        <is>
-          <t>ask for</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1931,17 +1381,7 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D56" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E56" t="inlineStr">
-        <is>
-          <t>put in for</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1958,17 +1398,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D57" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E57" t="inlineStr">
-        <is>
-          <t>summon</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -1985,17 +1415,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E58" t="inlineStr">
-        <is>
-          <t>necessitate</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -2012,17 +1432,7 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E59" t="inlineStr">
-        <is>
-          <t>demand</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -2039,17 +1449,7 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E60" t="inlineStr">
-        <is>
-          <t>stipulate</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -2066,17 +1466,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D61" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E61" t="inlineStr">
-        <is>
-          <t>enjoin</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>
@@ -2093,17 +1483,7 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t>기출예정</t>
-        </is>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>Day03</t>
-        </is>
-      </c>
-      <c r="E62" t="inlineStr">
-        <is>
-          <t>require</t>
+          <t>Day03</t>
         </is>
       </c>
     </row>

--- a/학습자료/단답형/영어_유의어_Day03.xlsx
+++ b/학습자료/단답형/영어_유의어_Day03.xlsx
@@ -963,7 +963,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>garm</t>
+          <t>harm</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
